--- a/FRD4P/Test/xpar_selected.xlsx
+++ b/FRD4P/Test/xpar_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,61 @@
           <t>FX Rate</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Free Float</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Price in Index Currency</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Original market cap</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Capping 1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Mcap 1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Weight 1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Capping 2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Mcap 2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Weight 2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Capping 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -602,6 +657,39 @@
       <c r="S2" t="n">
         <v>1</v>
       </c>
+      <c r="T2" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>64.45</v>
+      </c>
+      <c r="V2" t="n">
+        <v>69236710358.6525</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.09519893120396501</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>69236710358.6525</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.09627634583756375</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>69236710358.6525</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.09519893120396501</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -675,6 +763,39 @@
       <c r="S3" t="n">
         <v>1</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>607.7</v>
+      </c>
+      <c r="V3" t="n">
+        <v>151968055545</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2089526840614955</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>143829119720.5756</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>151968055545</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2089526840614955</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -748,6 +869,39 @@
       <c r="S4" t="n">
         <v>1</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10280189928</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.01413503167105718</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10280189928</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0142950050003391</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10280189928</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.01413503167105718</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -821,6 +975,39 @@
       <c r="S5" t="n">
         <v>1</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>80.78</v>
+      </c>
+      <c r="V5" t="n">
+        <v>36642229817.004</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.05038224805076845</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>36642229817.004</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.05095244952926192</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>36642229817.004</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.05038224805076845</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +1081,39 @@
       <c r="S6" t="n">
         <v>1</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1926</v>
+      </c>
+      <c r="V6" t="n">
+        <v>60998006253.60001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.08387089696831332</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>60998006253.60001</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.08482010648762092</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>60998006253.60001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.08387089696831332</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -967,6 +1187,39 @@
       <c r="S7" t="n">
         <v>1</v>
       </c>
+      <c r="T7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.415</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8360716026.415999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.01149579790391063</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8360716026.415999</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.01162590168480319</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8360716026.415999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.01149579790391063</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1040,6 +1293,39 @@
       <c r="S8" t="n">
         <v>1</v>
       </c>
+      <c r="T8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="U8" t="n">
+        <v>368.35</v>
+      </c>
+      <c r="V8" t="n">
+        <v>88672952262.73502</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.1219233299558064</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>88672952262.73502</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.123303198177121</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>88672952262.73502</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.1219233299558064</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1113,6 +1399,39 @@
       <c r="S9" t="n">
         <v>1</v>
       </c>
+      <c r="T9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>14.365</v>
+      </c>
+      <c r="V9" t="n">
+        <v>13040126177.325</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0179298824050939</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13040126177.325</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.01813280398664574</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13040126177.325</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0179298824050939</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1186,6 +1505,39 @@
       <c r="S10" t="n">
         <v>1</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>93.22</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6851670000</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.009420893303327731</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6851670000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.009527514335499096</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6851670000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.009420893303327731</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1259,6 +1611,39 @@
       <c r="S11" t="n">
         <v>1</v>
       </c>
+      <c r="T11" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="U11" t="n">
+        <v>38.72</v>
+      </c>
+      <c r="V11" t="n">
+        <v>8018115568.32</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.01102472992174079</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8018115568.32</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.01114950238713442</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8018115568.32</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.01102472992174079</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1332,6 +1717,39 @@
       <c r="S12" t="n">
         <v>1</v>
       </c>
+      <c r="T12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="V12" t="n">
+        <v>22297555261.08</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.03065864074593327</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>22297555261.08</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.03100562014757322</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>22297555261.08</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.03065864074593327</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1405,6 +1823,39 @@
       <c r="S13" t="n">
         <v>1</v>
       </c>
+      <c r="T13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="V13" t="n">
+        <v>58581202959.71999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0805478463884146</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>58581202959.71999</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.08145944725731309</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>58581202959.71999</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.0805478463884146</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1478,6 +1929,39 @@
       <c r="S14" t="n">
         <v>1</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4229858011.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.00581596034464116</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4229858011.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.005881782520420854</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>4229858011.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.00581596034464116</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1551,6 +2035,39 @@
       <c r="S15" t="n">
         <v>1</v>
       </c>
+      <c r="T15" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="U15" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="V15" t="n">
+        <v>67619528250.19501</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.09297534190444701</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>67619528250.19501</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.09402759104910469</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>67619528250.19501</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.09297534190444701</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1624,6 +2141,39 @@
       <c r="S16" t="n">
         <v>1</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="U16" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>41768786056.81501</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.05743114844275588</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>41768786056.81501</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.05808112590546535</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41768786056.81501</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.05743114844275588</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1697,6 +2247,39 @@
       <c r="S17" t="n">
         <v>1</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="U17" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5428212650.000001</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.007463671222260249</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>5428212650.000001</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.007548141378527068</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>5428212650.000001</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.007463671222260249</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1770,6 +2353,39 @@
       <c r="S18" t="n">
         <v>1</v>
       </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="V18" t="n">
+        <v>26045928173.18</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.03581256982686944</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26045928173.18</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.03621787886038765</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26045928173.18</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.03581256982686944</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1843,6 +2459,39 @@
       <c r="S19" t="n">
         <v>1</v>
       </c>
+      <c r="T19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>4581406529.700001</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.006299331709710578</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4581406529.700001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.006370624444619476</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>4581406529.700001</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.006299331709710578</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1916,6 +2565,39 @@
       <c r="S20" t="n">
         <v>1</v>
       </c>
+      <c r="T20" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="U20" t="n">
+        <v>229.65</v>
+      </c>
+      <c r="V20" t="n">
+        <v>17006149000.62</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.02338307525542452</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>17006149000.62</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.02364771338885859</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17006149000.62</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.02338307525542452</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1988,6 +2670,39 @@
       </c>
       <c r="S21" t="n">
         <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U21" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="V21" t="n">
+        <v>25657135597.44</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.03527798871406446</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>25657135597.44</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.03567724762174095</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>25657135597.44</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.03527798871406446</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
